--- a/南京二手房住宅成交数据.xlsx
+++ b/南京二手房住宅成交数据.xlsx
@@ -10,6 +10,7 @@
     <sheet name="2024-05-20" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="2024-05-21" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="2024-05-22" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2024-05-23" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1703,4 +1704,215 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>区属</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>成交套数</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>全市</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>玄武</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>秦淮</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>建邺</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>鼓楼</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>栖霞</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>雨花台</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>江宁</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>六合</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>浦口</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>溧水</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>高淳</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/南京二手房住宅成交数据.xlsx
+++ b/南京二手房住宅成交数据.xlsx
@@ -11,6 +11,14 @@
     <sheet name="2024-05-21" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="2024-05-22" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="2024-05-23" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2024-05-24" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2024-05-25" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2024-05-26" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="2024-05-28" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="2024-05-29" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="2024-05-30" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="2024-05-31" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="2024-06-06" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1284,6 +1292,639 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>区属</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>成交套数</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>全市</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>玄武</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>秦淮</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>建邺</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>鼓楼</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>栖霞</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>雨花台</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>江宁</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>六合</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>浦口</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>溧水</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>高淳</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>区属</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>成交套数</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>全市</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>玄武</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>秦淮</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>建邺</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>鼓楼</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>栖霞</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>雨花台</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>江宁</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>六合</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>浦口</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>溧水</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>高淳</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>区属</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>成交套数</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>全市</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>玄武</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>秦淮</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>建邺</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>鼓楼</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>栖霞</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>雨花台</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>江宁</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>六合</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>浦口</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>溧水</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>高淳</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1915,4 +2556,1059 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>区属</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>成交套数</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>全市</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>玄武</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>秦淮</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>建邺</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>鼓楼</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>栖霞</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>雨花台</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>江宁</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>六合</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>浦口</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>溧水</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>高淳</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>区属</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>成交套数</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>全市</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>玄武</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>秦淮</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>建邺</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>鼓楼</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>栖霞</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>雨花台</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>江宁</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>六合</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>浦口</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>溧水</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>高淳</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>区属</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>成交套数</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>全市</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>玄武</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>秦淮</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>建邺</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>鼓楼</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>栖霞</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>雨花台</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>江宁</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>六合</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>浦口</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>溧水</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>高淳</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>区属</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>成交套数</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>全市</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>玄武</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>秦淮</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>建邺</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>鼓楼</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>栖霞</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>雨花台</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>江宁</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>六合</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>浦口</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>溧水</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>高淳</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>区属</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>成交套数</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>全市</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>玄武</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>秦淮</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>建邺</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>鼓楼</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>栖霞</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>雨花台</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>江宁</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>六合</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>浦口</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>溧水</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>高淳</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>